--- a/Table for the graph_Lutsk Klikuns_.xlsx
+++ b/Table for the graph_Lutsk Klikuns_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ПРМ-11\імпорт для графу луцькі кликуни\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F97375-FB59-47B8-83EE-19A558CEE303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5514B72A-B8C8-4653-ACFD-8822314426E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="73">
   <si>
     <t>Назва</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>In meters(m)</t>
-  </si>
-  <si>
-    <t>і</t>
   </si>
 </sst>
 </file>
@@ -572,6 +569,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -593,7 +591,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -847,16 +844,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>71</v>
@@ -929,10 +926,10 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="31"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="32"/>
       <c r="E2" t="s">
         <v>71</v>
       </c>
@@ -1011,10 +1008,10 @@
       <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="24"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1092,10 +1089,10 @@
       <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1174,10 +1171,10 @@
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1256,10 +1253,10 @@
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="24"/>
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1338,10 +1335,10 @@
       <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="24"/>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1420,10 +1417,10 @@
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1502,10 +1499,10 @@
       <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1584,10 +1581,10 @@
       <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="24"/>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1666,10 +1663,10 @@
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1748,10 +1745,10 @@
       <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="24"/>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1830,10 +1827,10 @@
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="24"/>
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1912,10 +1909,10 @@
       <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="24"/>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1994,10 +1991,10 @@
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="24"/>
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2076,10 +2073,10 @@
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2158,10 +2155,10 @@
       <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="24"/>
       <c r="F17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2240,10 +2237,10 @@
       <c r="B18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="24"/>
       <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2322,10 +2319,10 @@
       <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="24"/>
       <c r="F19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2404,10 +2401,10 @@
       <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="24"/>
       <c r="F20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2486,10 +2483,10 @@
       <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="24"/>
       <c r="F21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2568,10 +2565,10 @@
       <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="24"/>
       <c r="F22" s="1" t="s">
         <v>22</v>
       </c>
@@ -2650,10 +2647,10 @@
       <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="24"/>
       <c r="F23" s="1" t="s">
         <v>23</v>
       </c>
@@ -2730,96 +2727,96 @@
       <c r="AB24" s="18"/>
     </row>
     <row r="25" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="24"/>
       <c r="AA25" s="11"/>
       <c r="AB25" s="18"/>
     </row>
     <row r="26" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="24"/>
       <c r="AA26" s="11"/>
       <c r="AB26" s="18"/>
     </row>
     <row r="27" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="24"/>
     </row>
     <row r="28" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="24"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
@@ -2827,46 +2824,46 @@
       <c r="AB28" s="12"/>
     </row>
     <row r="29" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="29"/>
     </row>
     <row r="30" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="31"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="32"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
@@ -3021,9 +3018,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D41AE8-7731-4B17-A9D9-8387D639B48D}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
@@ -3033,73 +3030,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="20">
@@ -3167,7 +3164,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="19">
@@ -3235,7 +3232,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="19">
@@ -3303,7 +3300,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="19">
@@ -3371,7 +3368,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="19">
@@ -3439,7 +3436,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="19">
@@ -3507,7 +3504,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="19">
@@ -3575,7 +3572,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="19">
@@ -3643,7 +3640,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="19">
@@ -3711,7 +3708,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="19">
@@ -3779,7 +3776,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="19">
@@ -3847,7 +3844,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="19">
@@ -3915,7 +3912,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="19">
@@ -3983,7 +3980,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="19">
@@ -4051,7 +4048,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="19">
@@ -4118,8 +4115,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="19">
@@ -4186,8 +4183,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="19">
@@ -4254,8 +4251,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="19">
@@ -4322,8 +4319,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="19">
@@ -4390,8 +4387,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="19">
@@ -4457,12 +4454,9 @@
       <c r="V21" s="19">
         <v>-1</v>
       </c>
-      <c r="X21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="19">
